--- a/deployment/v3/utils/onboard/machine/xlsx/type.xlsx
+++ b/deployment/v3/utils/onboard/machine/xlsx/type.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">code</t>
   </si>
@@ -31,9 +31,6 @@
     <t xml:space="preserve">description</t>
   </si>
   <si>
-    <t xml:space="preserve">language</t>
-  </si>
-  <si>
     <t xml:space="preserve">LP1</t>
   </si>
   <si>
@@ -41,15 +38,6 @@
   </si>
   <si>
     <t xml:space="preserve">Registration laptop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordinateur portable d'enregistrement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fra</t>
   </si>
 </sst>
 </file>
@@ -173,19 +161,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ20"/>
+  <dimension ref="A1:AMJ19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="16.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="38.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="10.12"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="5" style="2" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="1021" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1019" min="4" style="2" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="1020" style="2" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -198,41 +185,27 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AMG1" s="2"/>
+      <c r="AMF1" s="2"/>
+      <c r="AMG1" s="0"/>
       <c r="AMH1" s="0"/>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5"/>
@@ -313,11 +286,6 @@
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
